--- a/BOM_SolderingStation_JasperMaes.xlsx
+++ b/BOM_SolderingStation_JasperMaes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaspe\GitHub_EAI1\Project_Design_Soldering_Station\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9A84D-F538-4993-8DF5-C64650EDE579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3147FC2-99C5-498E-9623-F769C68905FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1653BBE0-3EEB-419E-AB45-7E5C61006DC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1653BBE0-3EEB-419E-AB45-7E5C61006DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Soldeerstatio" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
   <si>
     <t>Name</t>
   </si>
@@ -380,13 +380,34 @@
     <t>T5</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>ordered from</t>
   </si>
   <si>
     <t>Total price:</t>
+  </si>
+  <si>
+    <t>Total price</t>
+  </si>
+  <si>
+    <t>AMAZON</t>
+  </si>
+  <si>
+    <t>rs components</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t>At school</t>
+  </si>
+  <si>
+    <t>TST 60/002INDEL</t>
+  </si>
+  <si>
+    <t>toroidal transformer 60VA</t>
+  </si>
+  <si>
+    <t>external</t>
   </si>
 </sst>
 </file>
@@ -396,10 +417,24 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ [$€-813]\ * #,##0.00_ ;_ [$€-813]\ * \-#,##0.00_ ;_ [$€-813]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -477,9 +512,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -492,17 +525,16 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -512,15 +544,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -833,28 +866,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E63234E-D299-4C4B-8E81-C87FA44FBE60}">
-  <dimension ref="A1:BG48"/>
+  <dimension ref="A1:BG47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="26.26953125" customWidth="1"/>
-    <col min="7" max="7" width="22.90625" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="99" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" customWidth="1"/>
-    <col min="10" max="10" width="19.90625" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -867,67 +900,67 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -940,17 +973,13 @@
       <c r="D2" s="6">
         <v>2</v>
       </c>
-      <c r="E2" s="11">
-        <v>0</v>
+      <c r="E2" s="8">
+        <f>2*0.832</f>
+        <v>1.6639999999999999</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -963,17 +992,12 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
+      <c r="E3" s="8">
+        <v>4.2</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -986,17 +1010,12 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
+      <c r="E4" s="8">
+        <v>2.75</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -1009,17 +1028,12 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="11">
-        <v>0</v>
+      <c r="E5" s="8">
+        <v>0.51700000000000002</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1032,17 +1046,14 @@
       <c r="D6" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="11">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1055,17 +1066,14 @@
       <c r="D7" s="6">
         <v>7</v>
       </c>
-      <c r="E7" s="11">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -1078,17 +1086,13 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
+      <c r="E8" s="8">
+        <f>2*2.75</f>
+        <v>5.5</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -1101,17 +1105,12 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="11">
-        <v>0</v>
+      <c r="E9" s="8">
+        <v>0.51700000000000002</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -1124,17 +1123,14 @@
       <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1147,17 +1143,12 @@
       <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="11">
-        <v>0</v>
+      <c r="E11" s="8">
+        <v>0.22</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1170,17 +1161,12 @@
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="11">
-        <v>0</v>
+      <c r="E12" s="8">
+        <v>0.17299999999999999</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
@@ -1193,17 +1179,12 @@
       <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
+      <c r="E13" s="8">
+        <v>3.29</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -1216,17 +1197,15 @@
       <c r="D14" s="6">
         <v>1</v>
       </c>
-      <c r="E14" s="11">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="E14" s="8">
+        <f>5.248+15</f>
+        <v>20.248000000000001</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -1239,17 +1218,14 @@
       <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
+      <c r="E15" s="8">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1262,17 +1238,12 @@
       <c r="D16" s="6">
         <v>1</v>
       </c>
-      <c r="E16" s="11">
-        <v>0</v>
+      <c r="E16" s="8">
+        <v>0.58199999999999996</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>44</v>
       </c>
@@ -1285,17 +1256,12 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="11">
-        <v>0</v>
+      <c r="E17" s="8">
+        <v>3.12</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>47</v>
       </c>
@@ -1308,17 +1274,13 @@
       <c r="D18" s="6">
         <v>4</v>
       </c>
-      <c r="E18" s="11">
-        <v>0</v>
+      <c r="E18" s="8">
+        <f>4*0.8</f>
+        <v>3.2</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>50</v>
       </c>
@@ -1331,17 +1293,14 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="11">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -1354,17 +1313,14 @@
       <c r="D20" s="6">
         <v>2</v>
       </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1377,17 +1333,14 @@
       <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="11">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -1400,17 +1353,14 @@
       <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="11">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -1423,17 +1373,12 @@
       <c r="D23" s="6">
         <v>1</v>
       </c>
-      <c r="E23" s="11">
-        <v>0</v>
+      <c r="E23" s="8">
+        <v>2.88</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1446,17 +1391,14 @@
       <c r="D24" s="6">
         <v>1</v>
       </c>
-      <c r="E24" s="11">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>65</v>
       </c>
@@ -1469,17 +1411,14 @@
       <c r="D25" s="6">
         <v>1</v>
       </c>
-      <c r="E25" s="11">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1492,17 +1431,14 @@
       <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="11">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -1515,17 +1451,13 @@
       <c r="D27" s="6">
         <v>1</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
+      <c r="E27" s="8">
+        <f>2*2.75</f>
+        <v>5.5</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1538,17 +1470,12 @@
       <c r="D28" s="6">
         <v>1</v>
       </c>
-      <c r="E28" s="11">
-        <v>0</v>
+      <c r="E28" s="8">
+        <v>1.5</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>74</v>
       </c>
@@ -1561,17 +1488,14 @@
       <c r="D29" s="6">
         <v>1</v>
       </c>
-      <c r="E29" s="11">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E29" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>77</v>
       </c>
@@ -1584,17 +1508,14 @@
       <c r="D30" s="6">
         <v>3</v>
       </c>
-      <c r="E30" s="11">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
@@ -1607,17 +1528,14 @@
       <c r="D31" s="6">
         <v>5</v>
       </c>
-      <c r="E31" s="11">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -1630,17 +1548,14 @@
       <c r="D32" s="6">
         <v>1</v>
       </c>
-      <c r="E32" s="11">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>83</v>
       </c>
@@ -1653,17 +1568,14 @@
       <c r="D33" s="6">
         <v>1</v>
       </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>85</v>
       </c>
@@ -1676,17 +1588,14 @@
       <c r="D34" s="6">
         <v>4</v>
       </c>
-      <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>87</v>
       </c>
@@ -1699,17 +1608,14 @@
       <c r="D35" s="6">
         <v>3</v>
       </c>
-      <c r="E35" s="11">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E35" s="8">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>89</v>
       </c>
@@ -1722,17 +1628,14 @@
       <c r="D36" s="6">
         <v>1</v>
       </c>
-      <c r="E36" s="11">
-        <v>0</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>91</v>
       </c>
@@ -1745,17 +1648,14 @@
       <c r="D37" s="6">
         <v>3</v>
       </c>
-      <c r="E37" s="11">
-        <v>0</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
@@ -1768,17 +1668,14 @@
       <c r="D38" s="6">
         <v>1</v>
       </c>
-      <c r="E38" s="11">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E38" s="8">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>95</v>
       </c>
@@ -1791,17 +1688,14 @@
       <c r="D39" s="6">
         <v>1</v>
       </c>
-      <c r="E39" s="11">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E39" s="8">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>97</v>
       </c>
@@ -1814,17 +1708,14 @@
       <c r="D40" s="6">
         <v>2</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E40" s="8">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>99</v>
       </c>
@@ -1837,17 +1728,12 @@
       <c r="D41" s="6">
         <v>1</v>
       </c>
-      <c r="E41" s="11">
-        <v>0</v>
+      <c r="E41" s="8">
+        <v>3.32</v>
       </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
@@ -1860,17 +1746,12 @@
       <c r="D42" s="6">
         <v>1</v>
       </c>
-      <c r="E42" s="11">
-        <v>0</v>
+      <c r="E42" s="8">
+        <v>0.51700000000000002</v>
       </c>
       <c r="F42" s="1"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
@@ -1883,17 +1764,13 @@
       <c r="D43" s="6">
         <v>2</v>
       </c>
-      <c r="E43" s="11">
-        <v>0</v>
+      <c r="E43" s="8">
+        <f>2*0.517</f>
+        <v>1.034</v>
       </c>
       <c r="F43" s="1"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>107</v>
       </c>
@@ -1906,17 +1783,12 @@
       <c r="D44" s="6">
         <v>1</v>
       </c>
-      <c r="E44" s="11">
-        <v>0</v>
+      <c r="E44" s="8">
+        <v>1.1499999999999999</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
@@ -1929,34 +1801,43 @@
       <c r="D45" s="6">
         <v>1</v>
       </c>
-      <c r="E45" s="11">
-        <v>0</v>
+      <c r="E45" s="8">
+        <v>0.115</v>
       </c>
       <c r="F45" s="1"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D47" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="E47" s="13">
-        <f>SUM(E2:E45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="12">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13">
+        <v>27.48</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="10">
+        <f>SUM(E2:E46)</f>
+        <v>99.277000000000001</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A46" r:id="rId1" display="https://www.tme.eu/nl/katalog/toroidale-transformatoren_100028/p,indel_337/" xr:uid="{E1678442-31FB-412F-ADAA-35E34100570F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>